--- a/public/template.xlsx
+++ b/public/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\OrgChart_React-sixth\OrgChart_React-sixth\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D522A016-29DE-48B7-AFDC-E77E9BAAB6B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02F9FB9F-43A3-415E-971E-2598C614F91F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3240" yWindow="3240" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>ID</t>
   </si>
@@ -73,7 +73,7 @@
     <t>Deputy General Manager</t>
   </si>
   <si>
-    <t>Vacant</t>
+    <t>Active</t>
   </si>
 </sst>
 </file>
@@ -159,7 +159,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -440,7 +440,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" activeCellId="1" sqref="A8 D8"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
@@ -500,6 +500,9 @@
       <c r="D3" s="1">
         <v>1</v>
       </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
@@ -513,6 +516,9 @@
       </c>
       <c r="D4" s="1">
         <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:6">
